--- a/Docs/Timesheet.xlsx
+++ b/Docs/Timesheet.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pieter/Desktop/CMSDEV_Herex/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839F5233-9712-4449-BE3B-2A0698CA5C37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5F287-CDE3-4548-8D45-0174BE07FF17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1220" windowWidth="42580" windowHeight="23920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TimeSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Planning" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -82,9 +88,6 @@
   </si>
   <si>
     <t>Update productie dossier</t>
-  </si>
-  <si>
-    <t>FULL RESET: creating a new drupal site / installing modules</t>
   </si>
   <si>
     <t>drupal:
@@ -139,12 +142,42 @@
     <t>drupal:
 - Setting Up my HTML template to be immersive with the drupal components/regions</t>
   </si>
+  <si>
+    <t>FULL RESET: 
+drupal:
+- Creating a new drupal site 
+- installing modules</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Semester 1</t>
+  </si>
+  <si>
+    <t>Herexamen</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML Template drupal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drupal Site </t>
+  </si>
+  <si>
+    <t>Vue App</t>
+  </si>
+  <si>
+    <t>Finishing touch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,8 +192,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFAB4500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,10 +210,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -181,12 +240,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,13 +350,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -219,14 +519,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowCount="1" headerRowDxfId="0" totalsRowCellStyle="Accent6">
-  <autoFilter ref="A1:E24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E24" totalsRowCount="1" headerRowDxfId="5" totalsRowCellStyle="Accent6">
+  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum" totalsRowLabel="Totaal" totalsRowCellStyle="Accent6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Teamlid" totalsRowCellStyle="Accent6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Domein" totalsRowCellStyle="Accent6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Taak" totalsRowCellStyle="Accent6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tijd (in uur)" totalsRowFunction="custom" totalsRowCellStyle="Accent6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum" totalsRowLabel="Totaal" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Teamlid" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Domein" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Taak" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tijd (in uur)" totalsRowFunction="custom" totalsRowDxfId="0">
       <totalsRowFormula>SUM(Table1[Tijd (in uur)])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -497,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43317</v>
       </c>
@@ -724,8 +1024,8 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -742,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -759,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -776,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -793,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -827,13 +1127,13 @@
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43324</v>
       </c>
@@ -844,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43325</v>
       </c>
@@ -861,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -869,38 +1169,48 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>43328</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
         <f>SUM(Table1[Tijd (in uur)])</f>
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -910,4 +1220,197 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E7FC7E-516D-7C46-B720-629FCF0DBAF5}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10">
+        <v>42941</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10">
+        <v>43108</v>
+      </c>
+      <c r="E2" s="10">
+        <v>43317</v>
+      </c>
+      <c r="F2" s="10">
+        <v>43318</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43319</v>
+      </c>
+      <c r="H2" s="10">
+        <v>43320</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43321</v>
+      </c>
+      <c r="J2" s="10">
+        <v>43322</v>
+      </c>
+      <c r="K2" s="10">
+        <v>43323</v>
+      </c>
+      <c r="L2" s="10">
+        <v>43324</v>
+      </c>
+      <c r="M2" s="10">
+        <v>43325</v>
+      </c>
+      <c r="N2" s="10">
+        <v>43326</v>
+      </c>
+      <c r="O2" s="10">
+        <v>43327</v>
+      </c>
+      <c r="P2" s="12">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>